--- a/Diagrammes DB/Dictionnaire de Données/Dictionnaire de données.xlsx
+++ b/Diagrammes DB/Dictionnaire de Données/Dictionnaire de données.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\CESI année 2023-2024\Bloc 2 - POO\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Groupe-3-Projet-Bloc-POO\Diagrammes DB\Dictionnaire de Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B0E0E4-6533-45EC-8130-51A2DE576117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5639265E-1FA8-4724-85E2-C8D5FCFF7C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F62C81-3EC3-44BF-BE0A-71FF73EA89C3}"/>
   </bookViews>
